--- a/release/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_06_output_v0.1_reIntegration_cca.cluster.0.5_gene_ranking.xlsx
+++ b/release/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_06_output_v0.1_reIntegration_cca.cluster.0.5_gene_ranking.xlsx
@@ -2591,7 +2591,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Rab7b</t>
+          <t>Apoe</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Apoe</t>
+          <t>Top2a</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2731,7 +2731,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Top2a</t>
+          <t>Ptgs2</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2801,7 +2801,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Ptgs2</t>
+          <t>Rab7b</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Ccr7</t>
+          <t>Wdfy4</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -3121,7 +3121,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Ccr7</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -4896,7 +4896,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Il2ra</t>
+          <t>Nr4a3</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -4966,7 +4966,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Nr4a3</t>
+          <t>Il2ra</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -5041,7 +5041,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>Adgrg6</t>
+          <t>Nfkbiz</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -5111,7 +5111,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>Nfkbiz</t>
+          <t>Tes</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -5181,7 +5181,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>Tes</t>
+          <t>Mki67</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -5251,7 +5251,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>Mki67</t>
+          <t>Tnfaip3</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Adgrg6</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">

--- a/release/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_06_output_v0.1_reIntegration_cca.cluster.0.5_gene_ranking.xlsx
+++ b/release/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_06_output_v0.1_reIntegration_cca.cluster.0.5_gene_ranking.xlsx
@@ -2591,7 +2591,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Apoe</t>
+          <t>Rab7b</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Top2a</t>
+          <t>Apoe</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2731,7 +2731,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Ptgs2</t>
+          <t>Top2a</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2801,7 +2801,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Rab7b</t>
+          <t>Ptgs2</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Ccr7</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -3121,7 +3121,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Ccr7</t>
+          <t>Wdfy4</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -4896,7 +4896,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Nr4a3</t>
+          <t>Il2ra</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -4966,7 +4966,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Il2ra</t>
+          <t>Nr4a3</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -5041,7 +5041,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>Nfkbiz</t>
+          <t>Adgrg6</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -5111,7 +5111,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>Tes</t>
+          <t>Nfkbiz</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -5181,7 +5181,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>Mki67</t>
+          <t>Tes</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -5251,7 +5251,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Mki67</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>Adgrg6</t>
+          <t>Tnfaip3</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
